--- a/stock_historical_data/1wk/UNIONBANK.NS.xlsx
+++ b/stock_historical_data/1wk/UNIONBANK.NS.xlsx
@@ -60569,7 +60569,9 @@
       <c r="P1134" t="n">
         <v>0</v>
       </c>
-      <c r="Q1134" t="inlineStr"/>
+      <c r="Q1134" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/UNIONBANK.NS.xlsx
+++ b/stock_historical_data/1wk/UNIONBANK.NS.xlsx
@@ -64029,7 +64029,9 @@
       <c r="Q1135" t="n">
         <v>0</v>
       </c>
-      <c r="R1135" t="inlineStr"/>
+      <c r="R1135" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/UNIONBANK.NS.xlsx
+++ b/stock_historical_data/1wk/UNIONBANK.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1135"/>
+  <dimension ref="A1:R1137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3606,7 +3606,7 @@
         <v>2</v>
       </c>
       <c r="R56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="R59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -4054,7 +4054,7 @@
         <v>2</v>
       </c>
       <c r="R64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
@@ -4278,7 +4278,7 @@
         <v>1</v>
       </c>
       <c r="R68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -4726,7 +4726,7 @@
         <v>2</v>
       </c>
       <c r="R76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
@@ -4894,7 +4894,7 @@
         <v>1</v>
       </c>
       <c r="R79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -5622,7 +5622,7 @@
         <v>2</v>
       </c>
       <c r="R92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93">
@@ -6126,7 +6126,7 @@
         <v>1</v>
       </c>
       <c r="R101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -6518,7 +6518,7 @@
         <v>1</v>
       </c>
       <c r="R108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -6854,7 +6854,7 @@
         <v>2</v>
       </c>
       <c r="R114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115">
@@ -7470,7 +7470,7 @@
         <v>2</v>
       </c>
       <c r="R125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126">
@@ -7638,7 +7638,7 @@
         <v>1</v>
       </c>
       <c r="R128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -8086,7 +8086,7 @@
         <v>2</v>
       </c>
       <c r="R136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137">
@@ -9598,7 +9598,7 @@
         <v>2</v>
       </c>
       <c r="R163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164">
@@ -10438,7 +10438,7 @@
         <v>1</v>
       </c>
       <c r="R178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -10550,7 +10550,7 @@
         <v>2</v>
       </c>
       <c r="R180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181">
@@ -11502,7 +11502,7 @@
         <v>2</v>
       </c>
       <c r="R197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198">
@@ -11726,7 +11726,7 @@
         <v>1</v>
       </c>
       <c r="R201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
@@ -12062,7 +12062,7 @@
         <v>1</v>
       </c>
       <c r="R207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
@@ -12622,7 +12622,7 @@
         <v>2</v>
       </c>
       <c r="R217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218">
@@ -12846,7 +12846,7 @@
         <v>1</v>
       </c>
       <c r="R221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
@@ -13238,7 +13238,7 @@
         <v>1</v>
       </c>
       <c r="R228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
@@ -13910,7 +13910,7 @@
         <v>1</v>
       </c>
       <c r="R240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
@@ -15254,7 +15254,7 @@
         <v>1</v>
       </c>
       <c r="R264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
@@ -15758,7 +15758,7 @@
         <v>1</v>
       </c>
       <c r="R273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274">
@@ -16318,7 +16318,7 @@
         <v>2</v>
       </c>
       <c r="R283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284">
@@ -16486,7 +16486,7 @@
         <v>1</v>
       </c>
       <c r="R286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
@@ -16934,7 +16934,7 @@
         <v>1</v>
       </c>
       <c r="R294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295">
@@ -17326,7 +17326,7 @@
         <v>2</v>
       </c>
       <c r="R301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302">
@@ -17886,7 +17886,7 @@
         <v>1</v>
       </c>
       <c r="R311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
@@ -18614,7 +18614,7 @@
         <v>2</v>
       </c>
       <c r="R324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325">
@@ -18726,7 +18726,7 @@
         <v>1</v>
       </c>
       <c r="R326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327">
@@ -19174,7 +19174,7 @@
         <v>2</v>
       </c>
       <c r="R334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335">
@@ -19790,7 +19790,7 @@
         <v>1</v>
       </c>
       <c r="R345" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346">
@@ -20854,7 +20854,7 @@
         <v>2</v>
       </c>
       <c r="R364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365">
@@ -21078,7 +21078,7 @@
         <v>1</v>
       </c>
       <c r="R368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369">
@@ -21862,7 +21862,7 @@
         <v>2</v>
       </c>
       <c r="R382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383">
@@ -22030,7 +22030,7 @@
         <v>1</v>
       </c>
       <c r="R385" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386">
@@ -22534,7 +22534,7 @@
         <v>1</v>
       </c>
       <c r="R394" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395">
@@ -23262,7 +23262,7 @@
         <v>1</v>
       </c>
       <c r="R407" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408">
@@ -23374,7 +23374,7 @@
         <v>2</v>
       </c>
       <c r="R409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410">
@@ -24550,7 +24550,7 @@
         <v>2</v>
       </c>
       <c r="R430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431">
@@ -24886,7 +24886,7 @@
         <v>1</v>
       </c>
       <c r="R436" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437">
@@ -25446,7 +25446,7 @@
         <v>2</v>
       </c>
       <c r="R446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447">
@@ -25502,7 +25502,7 @@
         <v>1</v>
       </c>
       <c r="R447" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448">
@@ -25838,7 +25838,7 @@
         <v>2</v>
       </c>
       <c r="R453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454">
@@ -26062,7 +26062,7 @@
         <v>1</v>
       </c>
       <c r="R457" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458">
@@ -27238,7 +27238,7 @@
         <v>2</v>
       </c>
       <c r="R478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479">
@@ -27966,7 +27966,7 @@
         <v>1</v>
       </c>
       <c r="R491" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492">
@@ -28414,7 +28414,7 @@
         <v>2</v>
       </c>
       <c r="R499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500">
@@ -29254,7 +29254,7 @@
         <v>1</v>
       </c>
       <c r="R514" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515">
@@ -29534,7 +29534,7 @@
         <v>2</v>
       </c>
       <c r="R519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520">
@@ -29926,7 +29926,7 @@
         <v>1</v>
       </c>
       <c r="R526" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527">
@@ -30934,7 +30934,7 @@
         <v>2</v>
       </c>
       <c r="R544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545">
@@ -31718,7 +31718,7 @@
         <v>1</v>
       </c>
       <c r="R558" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559">
@@ -31942,7 +31942,7 @@
         <v>2</v>
       </c>
       <c r="R562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563">
@@ -32838,7 +32838,7 @@
         <v>1</v>
       </c>
       <c r="R578" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579">
@@ -33006,7 +33006,7 @@
         <v>2</v>
       </c>
       <c r="R581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582">
@@ -33734,7 +33734,7 @@
         <v>1</v>
       </c>
       <c r="R594" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595">
@@ -34182,7 +34182,7 @@
         <v>1</v>
       </c>
       <c r="R602" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="603">
@@ -34854,7 +34854,7 @@
         <v>1</v>
       </c>
       <c r="R614" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615">
@@ -35134,7 +35134,7 @@
         <v>2</v>
       </c>
       <c r="R619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="620">
@@ -35414,7 +35414,7 @@
         <v>1</v>
       </c>
       <c r="R624" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625">
@@ -36254,7 +36254,7 @@
         <v>2</v>
       </c>
       <c r="R639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640">
@@ -36926,7 +36926,7 @@
         <v>2</v>
       </c>
       <c r="R651" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="652">
@@ -37766,7 +37766,7 @@
         <v>1</v>
       </c>
       <c r="R666" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667">
@@ -38606,7 +38606,7 @@
         <v>2</v>
       </c>
       <c r="R681" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="682">
@@ -38998,7 +38998,7 @@
         <v>2</v>
       </c>
       <c r="R688" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="689">
@@ -39446,7 +39446,7 @@
         <v>2</v>
       </c>
       <c r="R696" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="697">
@@ -40174,7 +40174,7 @@
         <v>1</v>
       </c>
       <c r="R709" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710">
@@ -40454,7 +40454,7 @@
         <v>2</v>
       </c>
       <c r="R714" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="715">
@@ -41294,7 +41294,7 @@
         <v>2</v>
       </c>
       <c r="R729" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="730">
@@ -41910,7 +41910,7 @@
         <v>2</v>
       </c>
       <c r="R740" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="741">
@@ -42190,7 +42190,7 @@
         <v>1</v>
       </c>
       <c r="R745" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="746">
@@ -42302,7 +42302,7 @@
         <v>2</v>
       </c>
       <c r="R747" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="748">
@@ -42582,7 +42582,7 @@
         <v>1</v>
       </c>
       <c r="R752" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="753">
@@ -42918,7 +42918,7 @@
         <v>2</v>
       </c>
       <c r="R758" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="759">
@@ -43590,7 +43590,7 @@
         <v>2</v>
       </c>
       <c r="R770" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="771">
@@ -44038,7 +44038,7 @@
         <v>1</v>
       </c>
       <c r="R778" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="779">
@@ -44262,7 +44262,7 @@
         <v>2</v>
       </c>
       <c r="R782" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="783">
@@ -44374,7 +44374,7 @@
         <v>1</v>
       </c>
       <c r="R784" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="785">
@@ -44990,7 +44990,7 @@
         <v>2</v>
       </c>
       <c r="R795" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="796">
@@ -46334,7 +46334,7 @@
         <v>2</v>
       </c>
       <c r="R819" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="820">
@@ -46614,7 +46614,7 @@
         <v>1</v>
       </c>
       <c r="R824" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="825">
@@ -46838,7 +46838,7 @@
         <v>2</v>
       </c>
       <c r="R828" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="829">
@@ -47118,7 +47118,7 @@
         <v>1</v>
       </c>
       <c r="R833" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="834">
@@ -47510,7 +47510,7 @@
         <v>2</v>
       </c>
       <c r="R840" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="841">
@@ -47902,7 +47902,7 @@
         <v>1</v>
       </c>
       <c r="R847" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="848">
@@ -48070,7 +48070,7 @@
         <v>2</v>
       </c>
       <c r="R850" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="851">
@@ -48294,7 +48294,7 @@
         <v>1</v>
       </c>
       <c r="R854" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="855">
@@ -48574,7 +48574,7 @@
         <v>2</v>
       </c>
       <c r="R859" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="860">
@@ -48854,7 +48854,7 @@
         <v>1</v>
       </c>
       <c r="R864" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="865">
@@ -49190,7 +49190,7 @@
         <v>2</v>
       </c>
       <c r="R870" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="871">
@@ -49918,7 +49918,7 @@
         <v>2</v>
       </c>
       <c r="R883" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="884">
@@ -51094,7 +51094,7 @@
         <v>2</v>
       </c>
       <c r="R904" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="905">
@@ -51934,7 +51934,7 @@
         <v>1</v>
       </c>
       <c r="R919" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="920">
@@ -52494,7 +52494,7 @@
         <v>1</v>
       </c>
       <c r="R929" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="930">
@@ -52774,7 +52774,7 @@
         <v>2</v>
       </c>
       <c r="R934" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="935">
@@ -53334,7 +53334,7 @@
         <v>2</v>
       </c>
       <c r="R944" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="945">
@@ -53670,7 +53670,7 @@
         <v>1</v>
       </c>
       <c r="R950" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="951">
@@ -54118,7 +54118,7 @@
         <v>2</v>
       </c>
       <c r="R958" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="959">
@@ -54678,7 +54678,7 @@
         <v>2</v>
       </c>
       <c r="R968" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="969">
@@ -55182,7 +55182,7 @@
         <v>1</v>
       </c>
       <c r="R977" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="978">
@@ -55350,7 +55350,7 @@
         <v>2</v>
       </c>
       <c r="R980" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="981">
@@ -55686,7 +55686,7 @@
         <v>2</v>
       </c>
       <c r="R986" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="987">
@@ -56190,7 +56190,7 @@
         <v>1</v>
       </c>
       <c r="R995" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="996">
@@ -56806,7 +56806,7 @@
         <v>2</v>
       </c>
       <c r="R1006" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1007">
@@ -57534,7 +57534,7 @@
         <v>2</v>
       </c>
       <c r="R1019" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1020">
@@ -57982,7 +57982,7 @@
         <v>2</v>
       </c>
       <c r="R1027" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1028">
@@ -58262,7 +58262,7 @@
         <v>1</v>
       </c>
       <c r="R1032" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1033">
@@ -58654,7 +58654,7 @@
         <v>1</v>
       </c>
       <c r="R1039" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1040">
@@ -59998,7 +59998,7 @@
         <v>2</v>
       </c>
       <c r="R1063" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1064">
@@ -60838,7 +60838,7 @@
         <v>1</v>
       </c>
       <c r="R1078" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1079">
@@ -61118,7 +61118,7 @@
         <v>2</v>
       </c>
       <c r="R1083" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1084">
@@ -61566,7 +61566,7 @@
         <v>1</v>
       </c>
       <c r="R1091" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1092">
@@ -62070,7 +62070,7 @@
         <v>1</v>
       </c>
       <c r="R1100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1101">
@@ -62350,7 +62350,7 @@
         <v>2</v>
       </c>
       <c r="R1105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1106">
@@ -62518,7 +62518,7 @@
         <v>1</v>
       </c>
       <c r="R1108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1109">
@@ -63806,7 +63806,7 @@
         <v>2</v>
       </c>
       <c r="R1131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1132">
@@ -64032,6 +64032,114 @@
       <c r="R1135" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="1136">
+      <c r="A1136" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B1136" t="n">
+        <v>147.5500030517578</v>
+      </c>
+      <c r="C1136" t="n">
+        <v>149.1000061035156</v>
+      </c>
+      <c r="D1136" t="n">
+        <v>144.75</v>
+      </c>
+      <c r="E1136" t="n">
+        <v>146.9400024414062</v>
+      </c>
+      <c r="F1136" t="n">
+        <v>146.9400024414062</v>
+      </c>
+      <c r="G1136" t="n">
+        <v>40647857</v>
+      </c>
+      <c r="H1136" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1136" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1136" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1136" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1136" t="inlineStr"/>
+    </row>
+    <row r="1137">
+      <c r="A1137" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1137" t="n">
+        <v>142.1000061035156</v>
+      </c>
+      <c r="C1137" t="n">
+        <v>145</v>
+      </c>
+      <c r="D1137" t="n">
+        <v>136.3800048828125</v>
+      </c>
+      <c r="E1137" t="n">
+        <v>136.6900024414062</v>
+      </c>
+      <c r="F1137" t="n">
+        <v>136.6900024414062</v>
+      </c>
+      <c r="G1137" t="n">
+        <v>84930312</v>
+      </c>
+      <c r="H1137" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1137" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1137" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1137" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1137" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/UNIONBANK.NS.xlsx
+++ b/stock_historical_data/1wk/UNIONBANK.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1137"/>
+  <dimension ref="A1:R1159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3603,10 +3603,10 @@
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -3771,10 +3771,10 @@
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -4051,10 +4051,10 @@
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -4275,10 +4275,10 @@
         <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -4726,7 +4726,7 @@
         <v>2</v>
       </c>
       <c r="R76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -4894,7 +4894,7 @@
         <v>1</v>
       </c>
       <c r="R79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -5622,7 +5622,7 @@
         <v>2</v>
       </c>
       <c r="R92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -6126,7 +6126,7 @@
         <v>1</v>
       </c>
       <c r="R101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -6518,7 +6518,7 @@
         <v>1</v>
       </c>
       <c r="R108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -6854,7 +6854,7 @@
         <v>2</v>
       </c>
       <c r="R114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -7470,7 +7470,7 @@
         <v>2</v>
       </c>
       <c r="R125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -7638,7 +7638,7 @@
         <v>1</v>
       </c>
       <c r="R128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -8086,7 +8086,7 @@
         <v>2</v>
       </c>
       <c r="R136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -9598,7 +9598,7 @@
         <v>2</v>
       </c>
       <c r="R163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -10438,7 +10438,7 @@
         <v>1</v>
       </c>
       <c r="R178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -10550,7 +10550,7 @@
         <v>2</v>
       </c>
       <c r="R180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -11502,7 +11502,7 @@
         <v>2</v>
       </c>
       <c r="R197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
@@ -11726,7 +11726,7 @@
         <v>1</v>
       </c>
       <c r="R201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
@@ -12062,7 +12062,7 @@
         <v>1</v>
       </c>
       <c r="R207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
@@ -12622,7 +12622,7 @@
         <v>2</v>
       </c>
       <c r="R217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
@@ -12846,7 +12846,7 @@
         <v>1</v>
       </c>
       <c r="R221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
@@ -13238,7 +13238,7 @@
         <v>1</v>
       </c>
       <c r="R228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
@@ -13910,7 +13910,7 @@
         <v>1</v>
       </c>
       <c r="R240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
@@ -15254,7 +15254,7 @@
         <v>1</v>
       </c>
       <c r="R264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
@@ -15758,7 +15758,7 @@
         <v>1</v>
       </c>
       <c r="R273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
@@ -16318,7 +16318,7 @@
         <v>2</v>
       </c>
       <c r="R283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284">
@@ -16486,7 +16486,7 @@
         <v>1</v>
       </c>
       <c r="R286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
@@ -16934,7 +16934,7 @@
         <v>1</v>
       </c>
       <c r="R294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
@@ -17326,7 +17326,7 @@
         <v>2</v>
       </c>
       <c r="R301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302">
@@ -17886,7 +17886,7 @@
         <v>1</v>
       </c>
       <c r="R311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312">
@@ -18614,7 +18614,7 @@
         <v>2</v>
       </c>
       <c r="R324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325">
@@ -18726,7 +18726,7 @@
         <v>1</v>
       </c>
       <c r="R326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327">
@@ -19174,7 +19174,7 @@
         <v>2</v>
       </c>
       <c r="R334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335">
@@ -19790,7 +19790,7 @@
         <v>1</v>
       </c>
       <c r="R345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346">
@@ -20854,7 +20854,7 @@
         <v>2</v>
       </c>
       <c r="R364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365">
@@ -21078,7 +21078,7 @@
         <v>1</v>
       </c>
       <c r="R368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369">
@@ -21862,7 +21862,7 @@
         <v>2</v>
       </c>
       <c r="R382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383">
@@ -22030,7 +22030,7 @@
         <v>1</v>
       </c>
       <c r="R385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386">
@@ -22534,7 +22534,7 @@
         <v>1</v>
       </c>
       <c r="R394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395">
@@ -23262,7 +23262,7 @@
         <v>1</v>
       </c>
       <c r="R407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408">
@@ -23374,7 +23374,7 @@
         <v>2</v>
       </c>
       <c r="R409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410">
@@ -24550,7 +24550,7 @@
         <v>2</v>
       </c>
       <c r="R430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431">
@@ -24886,7 +24886,7 @@
         <v>1</v>
       </c>
       <c r="R436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437">
@@ -25446,7 +25446,7 @@
         <v>2</v>
       </c>
       <c r="R446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447">
@@ -25502,7 +25502,7 @@
         <v>1</v>
       </c>
       <c r="R447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448">
@@ -25838,7 +25838,7 @@
         <v>2</v>
       </c>
       <c r="R453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454">
@@ -26062,7 +26062,7 @@
         <v>1</v>
       </c>
       <c r="R457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458">
@@ -27238,7 +27238,7 @@
         <v>2</v>
       </c>
       <c r="R478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479">
@@ -27966,7 +27966,7 @@
         <v>1</v>
       </c>
       <c r="R491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492">
@@ -28414,7 +28414,7 @@
         <v>2</v>
       </c>
       <c r="R499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500">
@@ -29254,7 +29254,7 @@
         <v>1</v>
       </c>
       <c r="R514" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515">
@@ -29534,7 +29534,7 @@
         <v>2</v>
       </c>
       <c r="R519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520">
@@ -29926,7 +29926,7 @@
         <v>1</v>
       </c>
       <c r="R526" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527">
@@ -30934,7 +30934,7 @@
         <v>2</v>
       </c>
       <c r="R544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545">
@@ -31718,7 +31718,7 @@
         <v>1</v>
       </c>
       <c r="R558" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559">
@@ -31942,7 +31942,7 @@
         <v>2</v>
       </c>
       <c r="R562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563">
@@ -32838,7 +32838,7 @@
         <v>1</v>
       </c>
       <c r="R578" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579">
@@ -33006,7 +33006,7 @@
         <v>2</v>
       </c>
       <c r="R581" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582">
@@ -33734,7 +33734,7 @@
         <v>1</v>
       </c>
       <c r="R594" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595">
@@ -34182,7 +34182,7 @@
         <v>1</v>
       </c>
       <c r="R602" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603">
@@ -34854,7 +34854,7 @@
         <v>1</v>
       </c>
       <c r="R614" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615">
@@ -35134,7 +35134,7 @@
         <v>2</v>
       </c>
       <c r="R619" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620">
@@ -35414,7 +35414,7 @@
         <v>1</v>
       </c>
       <c r="R624" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625">
@@ -36254,7 +36254,7 @@
         <v>2</v>
       </c>
       <c r="R639" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640">
@@ -36926,7 +36926,7 @@
         <v>2</v>
       </c>
       <c r="R651" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652">
@@ -37766,7 +37766,7 @@
         <v>1</v>
       </c>
       <c r="R666" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667">
@@ -38606,7 +38606,7 @@
         <v>2</v>
       </c>
       <c r="R681" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682">
@@ -38998,7 +38998,7 @@
         <v>2</v>
       </c>
       <c r="R688" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689">
@@ -39446,7 +39446,7 @@
         <v>2</v>
       </c>
       <c r="R696" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697">
@@ -40174,7 +40174,7 @@
         <v>1</v>
       </c>
       <c r="R709" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710">
@@ -40454,7 +40454,7 @@
         <v>2</v>
       </c>
       <c r="R714" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715">
@@ -41294,7 +41294,7 @@
         <v>2</v>
       </c>
       <c r="R729" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730">
@@ -41910,7 +41910,7 @@
         <v>2</v>
       </c>
       <c r="R740" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741">
@@ -42190,7 +42190,7 @@
         <v>1</v>
       </c>
       <c r="R745" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746">
@@ -42302,7 +42302,7 @@
         <v>2</v>
       </c>
       <c r="R747" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748">
@@ -42582,7 +42582,7 @@
         <v>1</v>
       </c>
       <c r="R752" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753">
@@ -42918,7 +42918,7 @@
         <v>2</v>
       </c>
       <c r="R758" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759">
@@ -43590,7 +43590,7 @@
         <v>2</v>
       </c>
       <c r="R770" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771">
@@ -44038,7 +44038,7 @@
         <v>1</v>
       </c>
       <c r="R778" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779">
@@ -44262,7 +44262,7 @@
         <v>2</v>
       </c>
       <c r="R782" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783">
@@ -44374,7 +44374,7 @@
         <v>1</v>
       </c>
       <c r="R784" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785">
@@ -44990,7 +44990,7 @@
         <v>2</v>
       </c>
       <c r="R795" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796">
@@ -46334,7 +46334,7 @@
         <v>2</v>
       </c>
       <c r="R819" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820">
@@ -46614,7 +46614,7 @@
         <v>1</v>
       </c>
       <c r="R824" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825">
@@ -46838,7 +46838,7 @@
         <v>2</v>
       </c>
       <c r="R828" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829">
@@ -47118,7 +47118,7 @@
         <v>1</v>
       </c>
       <c r="R833" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="834">
@@ -47510,7 +47510,7 @@
         <v>2</v>
       </c>
       <c r="R840" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841">
@@ -47902,7 +47902,7 @@
         <v>1</v>
       </c>
       <c r="R847" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848">
@@ -48070,7 +48070,7 @@
         <v>2</v>
       </c>
       <c r="R850" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851">
@@ -48294,7 +48294,7 @@
         <v>1</v>
       </c>
       <c r="R854" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855">
@@ -48574,7 +48574,7 @@
         <v>2</v>
       </c>
       <c r="R859" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="860">
@@ -48854,7 +48854,7 @@
         <v>1</v>
       </c>
       <c r="R864" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="865">
@@ -49190,7 +49190,7 @@
         <v>2</v>
       </c>
       <c r="R870" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="871">
@@ -49918,7 +49918,7 @@
         <v>2</v>
       </c>
       <c r="R883" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="884">
@@ -51094,7 +51094,7 @@
         <v>2</v>
       </c>
       <c r="R904" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="905">
@@ -51934,7 +51934,7 @@
         <v>1</v>
       </c>
       <c r="R919" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="920">
@@ -52494,7 +52494,7 @@
         <v>1</v>
       </c>
       <c r="R929" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="930">
@@ -52774,7 +52774,7 @@
         <v>2</v>
       </c>
       <c r="R934" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="935">
@@ -53334,7 +53334,7 @@
         <v>2</v>
       </c>
       <c r="R944" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="945">
@@ -53670,7 +53670,7 @@
         <v>1</v>
       </c>
       <c r="R950" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="951">
@@ -54118,7 +54118,7 @@
         <v>2</v>
       </c>
       <c r="R958" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="959">
@@ -54678,7 +54678,7 @@
         <v>2</v>
       </c>
       <c r="R968" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="969">
@@ -55182,7 +55182,7 @@
         <v>1</v>
       </c>
       <c r="R977" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="978">
@@ -55350,7 +55350,7 @@
         <v>2</v>
       </c>
       <c r="R980" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="981">
@@ -55686,7 +55686,7 @@
         <v>2</v>
       </c>
       <c r="R986" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="987">
@@ -56190,7 +56190,7 @@
         <v>1</v>
       </c>
       <c r="R995" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="996">
@@ -56806,7 +56806,7 @@
         <v>2</v>
       </c>
       <c r="R1006" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1007">
@@ -57534,7 +57534,7 @@
         <v>2</v>
       </c>
       <c r="R1019" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1020">
@@ -57982,7 +57982,7 @@
         <v>2</v>
       </c>
       <c r="R1027" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1028">
@@ -58262,7 +58262,7 @@
         <v>1</v>
       </c>
       <c r="R1032" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1033">
@@ -58654,7 +58654,7 @@
         <v>1</v>
       </c>
       <c r="R1039" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1040">
@@ -59998,7 +59998,7 @@
         <v>2</v>
       </c>
       <c r="R1063" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1064">
@@ -60838,7 +60838,7 @@
         <v>1</v>
       </c>
       <c r="R1078" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1079">
@@ -61118,7 +61118,7 @@
         <v>2</v>
       </c>
       <c r="R1083" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1084">
@@ -61566,7 +61566,7 @@
         <v>1</v>
       </c>
       <c r="R1091" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1092">
@@ -62070,7 +62070,7 @@
         <v>1</v>
       </c>
       <c r="R1100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1101">
@@ -62350,7 +62350,7 @@
         <v>2</v>
       </c>
       <c r="R1105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1106">
@@ -62518,7 +62518,7 @@
         <v>1</v>
       </c>
       <c r="R1108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1109">
@@ -63806,7 +63806,7 @@
         <v>2</v>
       </c>
       <c r="R1131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1132">
@@ -63965,7 +63965,7 @@
         <v>23</v>
       </c>
       <c r="O1134" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P1134" t="n">
         <v>0</v>
@@ -64085,7 +64085,9 @@
       <c r="Q1136" t="n">
         <v>0</v>
       </c>
-      <c r="R1136" t="inlineStr"/>
+      <c r="R1136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1137">
       <c r="A1137" s="2" t="n">
@@ -64139,7 +64141,1197 @@
       <c r="Q1137" t="n">
         <v>0</v>
       </c>
-      <c r="R1137" t="inlineStr"/>
+      <c r="R1137" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1138">
+      <c r="A1138" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1138" t="n">
+        <v>137.3899993896484</v>
+      </c>
+      <c r="C1138" t="n">
+        <v>137.3999938964844</v>
+      </c>
+      <c r="D1138" t="n">
+        <v>133.5</v>
+      </c>
+      <c r="E1138" t="n">
+        <v>135.7299957275391</v>
+      </c>
+      <c r="F1138" t="n">
+        <v>132.2348022460938</v>
+      </c>
+      <c r="G1138" t="n">
+        <v>60453597</v>
+      </c>
+      <c r="H1138" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1138" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1138" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1138" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1138" t="inlineStr"/>
+    </row>
+    <row r="1139">
+      <c r="A1139" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1139" t="n">
+        <v>135</v>
+      </c>
+      <c r="C1139" t="n">
+        <v>141.0700073242188</v>
+      </c>
+      <c r="D1139" t="n">
+        <v>133</v>
+      </c>
+      <c r="E1139" t="n">
+        <v>136.1100006103516</v>
+      </c>
+      <c r="F1139" t="n">
+        <v>132.6050262451172</v>
+      </c>
+      <c r="G1139" t="n">
+        <v>63335796</v>
+      </c>
+      <c r="H1139" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1139" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1139" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1139" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1139" t="inlineStr"/>
+    </row>
+    <row r="1140">
+      <c r="A1140" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1140" t="n">
+        <v>136.5</v>
+      </c>
+      <c r="C1140" t="n">
+        <v>142.7400054931641</v>
+      </c>
+      <c r="D1140" t="n">
+        <v>135.1000061035156</v>
+      </c>
+      <c r="E1140" t="n">
+        <v>135.6499938964844</v>
+      </c>
+      <c r="F1140" t="n">
+        <v>132.1568603515625</v>
+      </c>
+      <c r="G1140" t="n">
+        <v>59386920</v>
+      </c>
+      <c r="H1140" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1140" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1140" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1140" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1140" t="inlineStr"/>
+    </row>
+    <row r="1141">
+      <c r="A1141" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1141" t="n">
+        <v>134.6499938964844</v>
+      </c>
+      <c r="C1141" t="n">
+        <v>138.9600067138672</v>
+      </c>
+      <c r="D1141" t="n">
+        <v>129.1000061035156</v>
+      </c>
+      <c r="E1141" t="n">
+        <v>132.8699951171875</v>
+      </c>
+      <c r="F1141" t="n">
+        <v>132.8699951171875</v>
+      </c>
+      <c r="G1141" t="n">
+        <v>51816593</v>
+      </c>
+      <c r="H1141" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1141" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1141" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1141" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1141" t="inlineStr"/>
+    </row>
+    <row r="1142">
+      <c r="A1142" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1142" t="n">
+        <v>134.25</v>
+      </c>
+      <c r="C1142" t="n">
+        <v>137.4600067138672</v>
+      </c>
+      <c r="D1142" t="n">
+        <v>131.7899932861328</v>
+      </c>
+      <c r="E1142" t="n">
+        <v>133.2700042724609</v>
+      </c>
+      <c r="F1142" t="n">
+        <v>133.2700042724609</v>
+      </c>
+      <c r="G1142" t="n">
+        <v>50631659</v>
+      </c>
+      <c r="H1142" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1142" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1142" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1142" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1142" t="inlineStr"/>
+    </row>
+    <row r="1143">
+      <c r="A1143" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1143" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="C1143" t="n">
+        <v>129.8399963378906</v>
+      </c>
+      <c r="D1143" t="n">
+        <v>120.0999984741211</v>
+      </c>
+      <c r="E1143" t="n">
+        <v>123.0199966430664</v>
+      </c>
+      <c r="F1143" t="n">
+        <v>123.0199966430664</v>
+      </c>
+      <c r="G1143" t="n">
+        <v>74062845</v>
+      </c>
+      <c r="H1143" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1143" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1143" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1143" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1143" t="inlineStr"/>
+    </row>
+    <row r="1144">
+      <c r="A1144" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1144" t="n">
+        <v>122.5100021362305</v>
+      </c>
+      <c r="C1144" t="n">
+        <v>122.879997253418</v>
+      </c>
+      <c r="D1144" t="n">
+        <v>116.3000030517578</v>
+      </c>
+      <c r="E1144" t="n">
+        <v>117.5299987792969</v>
+      </c>
+      <c r="F1144" t="n">
+        <v>117.5299987792969</v>
+      </c>
+      <c r="G1144" t="n">
+        <v>47374516</v>
+      </c>
+      <c r="H1144" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1144" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1144" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1144" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1144" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1144" t="inlineStr"/>
+    </row>
+    <row r="1145">
+      <c r="A1145" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1145" t="n">
+        <v>118.5100021362305</v>
+      </c>
+      <c r="C1145" t="n">
+        <v>128.0200042724609</v>
+      </c>
+      <c r="D1145" t="n">
+        <v>118.2099990844727</v>
+      </c>
+      <c r="E1145" t="n">
+        <v>127.0800018310547</v>
+      </c>
+      <c r="F1145" t="n">
+        <v>127.0800018310547</v>
+      </c>
+      <c r="G1145" t="n">
+        <v>51119901</v>
+      </c>
+      <c r="H1145" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1145" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1145" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1145" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1145" t="inlineStr"/>
+    </row>
+    <row r="1146">
+      <c r="A1146" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1146" t="n">
+        <v>127.0999984741211</v>
+      </c>
+      <c r="C1146" t="n">
+        <v>127.75</v>
+      </c>
+      <c r="D1146" t="n">
+        <v>121.0999984741211</v>
+      </c>
+      <c r="E1146" t="n">
+        <v>121.5400009155273</v>
+      </c>
+      <c r="F1146" t="n">
+        <v>121.5400009155273</v>
+      </c>
+      <c r="G1146" t="n">
+        <v>44504757</v>
+      </c>
+      <c r="H1146" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1146" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1146" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1146" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1146" t="inlineStr"/>
+    </row>
+    <row r="1147">
+      <c r="A1147" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1147" t="n">
+        <v>122.4899978637695</v>
+      </c>
+      <c r="C1147" t="n">
+        <v>123.620002746582</v>
+      </c>
+      <c r="D1147" t="n">
+        <v>120</v>
+      </c>
+      <c r="E1147" t="n">
+        <v>121.1999969482422</v>
+      </c>
+      <c r="F1147" t="n">
+        <v>121.1999969482422</v>
+      </c>
+      <c r="G1147" t="n">
+        <v>38306091</v>
+      </c>
+      <c r="H1147" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1147" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1147" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1147" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1147" t="inlineStr"/>
+    </row>
+    <row r="1148">
+      <c r="A1148" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1148" t="n">
+        <v>120.5100021362305</v>
+      </c>
+      <c r="C1148" t="n">
+        <v>123</v>
+      </c>
+      <c r="D1148" t="n">
+        <v>117.1100006103516</v>
+      </c>
+      <c r="E1148" t="n">
+        <v>120.1900024414062</v>
+      </c>
+      <c r="F1148" t="n">
+        <v>120.1900024414062</v>
+      </c>
+      <c r="G1148" t="n">
+        <v>45179100</v>
+      </c>
+      <c r="H1148" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1148" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1148" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1148" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1148" t="inlineStr"/>
+    </row>
+    <row r="1149">
+      <c r="A1149" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1149" t="n">
+        <v>122.8000030517578</v>
+      </c>
+      <c r="C1149" t="n">
+        <v>127.3000030517578</v>
+      </c>
+      <c r="D1149" t="n">
+        <v>119.3000030517578</v>
+      </c>
+      <c r="E1149" t="n">
+        <v>123.4300003051758</v>
+      </c>
+      <c r="F1149" t="n">
+        <v>123.4300003051758</v>
+      </c>
+      <c r="G1149" t="n">
+        <v>66453242</v>
+      </c>
+      <c r="H1149" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1149" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1149" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1149" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1149" t="inlineStr"/>
+    </row>
+    <row r="1150">
+      <c r="A1150" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1150" t="n">
+        <v>124.4000015258789</v>
+      </c>
+      <c r="C1150" t="n">
+        <v>129</v>
+      </c>
+      <c r="D1150" t="n">
+        <v>121.4700012207031</v>
+      </c>
+      <c r="E1150" t="n">
+        <v>123.5100021362305</v>
+      </c>
+      <c r="F1150" t="n">
+        <v>123.5100021362305</v>
+      </c>
+      <c r="G1150" t="n">
+        <v>75160673</v>
+      </c>
+      <c r="H1150" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1150" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1150" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1150" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1150" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1150" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1150" t="inlineStr"/>
+    </row>
+    <row r="1151">
+      <c r="A1151" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1151" t="n">
+        <v>123.1999969482422</v>
+      </c>
+      <c r="C1151" t="n">
+        <v>123.9000015258789</v>
+      </c>
+      <c r="D1151" t="n">
+        <v>116.7300033569336</v>
+      </c>
+      <c r="E1151" t="n">
+        <v>118.8600006103516</v>
+      </c>
+      <c r="F1151" t="n">
+        <v>118.8600006103516</v>
+      </c>
+      <c r="G1151" t="n">
+        <v>41807884</v>
+      </c>
+      <c r="H1151" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1151" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1151" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1151" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1151" t="inlineStr"/>
+    </row>
+    <row r="1152">
+      <c r="A1152" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1152" t="n">
+        <v>119.4499969482422</v>
+      </c>
+      <c r="C1152" t="n">
+        <v>120.1900024414062</v>
+      </c>
+      <c r="D1152" t="n">
+        <v>112.5899963378906</v>
+      </c>
+      <c r="E1152" t="n">
+        <v>114.120002746582</v>
+      </c>
+      <c r="F1152" t="n">
+        <v>114.120002746582</v>
+      </c>
+      <c r="G1152" t="n">
+        <v>37664068</v>
+      </c>
+      <c r="H1152" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1152" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1152" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1152" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1152" t="inlineStr"/>
+    </row>
+    <row r="1153">
+      <c r="A1153" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1153" t="n">
+        <v>114.4499969482422</v>
+      </c>
+      <c r="C1153" t="n">
+        <v>116.4499969482422</v>
+      </c>
+      <c r="D1153" t="n">
+        <v>110.2699966430664</v>
+      </c>
+      <c r="E1153" t="n">
+        <v>112.2200012207031</v>
+      </c>
+      <c r="F1153" t="n">
+        <v>112.2200012207031</v>
+      </c>
+      <c r="G1153" t="n">
+        <v>50882606</v>
+      </c>
+      <c r="H1153" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1153" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1153" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1153" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1153" t="inlineStr"/>
+    </row>
+    <row r="1154">
+      <c r="A1154" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1154" t="n">
+        <v>112.6500015258789</v>
+      </c>
+      <c r="C1154" t="n">
+        <v>114.1100006103516</v>
+      </c>
+      <c r="D1154" t="n">
+        <v>106.6800003051758</v>
+      </c>
+      <c r="E1154" t="n">
+        <v>108.2399978637695</v>
+      </c>
+      <c r="F1154" t="n">
+        <v>108.2399978637695</v>
+      </c>
+      <c r="G1154" t="n">
+        <v>55752622</v>
+      </c>
+      <c r="H1154" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1154" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1154" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1154" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1154" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1154" t="inlineStr"/>
+    </row>
+    <row r="1155">
+      <c r="A1155" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1155" t="n">
+        <v>108.7900009155273</v>
+      </c>
+      <c r="C1155" t="n">
+        <v>118.6999969482422</v>
+      </c>
+      <c r="D1155" t="n">
+        <v>108.1600036621094</v>
+      </c>
+      <c r="E1155" t="n">
+        <v>117.8499984741211</v>
+      </c>
+      <c r="F1155" t="n">
+        <v>117.8499984741211</v>
+      </c>
+      <c r="G1155" t="n">
+        <v>36244424</v>
+      </c>
+      <c r="H1155" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1155" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1155" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1155" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1155" t="inlineStr"/>
+    </row>
+    <row r="1156">
+      <c r="A1156" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1156" t="n">
+        <v>118.6999969482422</v>
+      </c>
+      <c r="C1156" t="n">
+        <v>122.4100036621094</v>
+      </c>
+      <c r="D1156" t="n">
+        <v>113.1600036621094</v>
+      </c>
+      <c r="E1156" t="n">
+        <v>117.5199966430664</v>
+      </c>
+      <c r="F1156" t="n">
+        <v>117.5199966430664</v>
+      </c>
+      <c r="G1156" t="n">
+        <v>42323420</v>
+      </c>
+      <c r="H1156" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1156" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1156" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1156" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1156" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1156" t="inlineStr"/>
+    </row>
+    <row r="1157">
+      <c r="A1157" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1157" t="n">
+        <v>117.5</v>
+      </c>
+      <c r="C1157" t="n">
+        <v>120.6399993896484</v>
+      </c>
+      <c r="D1157" t="n">
+        <v>113.25</v>
+      </c>
+      <c r="E1157" t="n">
+        <v>113.9000015258789</v>
+      </c>
+      <c r="F1157" t="n">
+        <v>113.9000015258789</v>
+      </c>
+      <c r="G1157" t="n">
+        <v>29437081</v>
+      </c>
+      <c r="H1157" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1157" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1157" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1157" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1157" t="inlineStr"/>
+    </row>
+    <row r="1158">
+      <c r="A1158" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1158" t="n">
+        <v>114</v>
+      </c>
+      <c r="C1158" t="n">
+        <v>117.7900009155273</v>
+      </c>
+      <c r="D1158" t="n">
+        <v>112</v>
+      </c>
+      <c r="E1158" t="n">
+        <v>115.0400009155273</v>
+      </c>
+      <c r="F1158" t="n">
+        <v>115.0400009155273</v>
+      </c>
+      <c r="G1158" t="n">
+        <v>29074206</v>
+      </c>
+      <c r="H1158" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1158" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1158" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1158" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1158" t="inlineStr"/>
+    </row>
+    <row r="1159">
+      <c r="A1159" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1159" t="n">
+        <v>117.0899963378906</v>
+      </c>
+      <c r="C1159" t="n">
+        <v>126.1999969482422</v>
+      </c>
+      <c r="D1159" t="n">
+        <v>117.0899963378906</v>
+      </c>
+      <c r="E1159" t="n">
+        <v>121.620002746582</v>
+      </c>
+      <c r="F1159" t="n">
+        <v>121.620002746582</v>
+      </c>
+      <c r="G1159" t="n">
+        <v>67864331</v>
+      </c>
+      <c r="H1159" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1159" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1159" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1159" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1159" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/UNIONBANK.NS.xlsx
+++ b/stock_historical_data/1wk/UNIONBANK.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1159"/>
+  <dimension ref="A1:R1181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4723,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="Q76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R76" t="n">
         <v>0</v>
@@ -4891,7 +4891,7 @@
         <v>0</v>
       </c>
       <c r="Q79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R79" t="n">
         <v>0</v>
@@ -5619,7 +5619,7 @@
         <v>0</v>
       </c>
       <c r="Q92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R92" t="n">
         <v>0</v>
@@ -64197,7 +64197,9 @@
       <c r="Q1138" t="n">
         <v>0</v>
       </c>
-      <c r="R1138" t="inlineStr"/>
+      <c r="R1138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1139">
       <c r="A1139" s="2" t="n">
@@ -64251,7 +64253,9 @@
       <c r="Q1139" t="n">
         <v>0</v>
       </c>
-      <c r="R1139" t="inlineStr"/>
+      <c r="R1139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1140">
       <c r="A1140" s="2" t="n">
@@ -64305,7 +64309,9 @@
       <c r="Q1140" t="n">
         <v>0</v>
       </c>
-      <c r="R1140" t="inlineStr"/>
+      <c r="R1140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1141">
       <c r="A1141" s="2" t="n">
@@ -64359,7 +64365,9 @@
       <c r="Q1141" t="n">
         <v>0</v>
       </c>
-      <c r="R1141" t="inlineStr"/>
+      <c r="R1141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1142">
       <c r="A1142" s="2" t="n">
@@ -64413,7 +64421,9 @@
       <c r="Q1142" t="n">
         <v>0</v>
       </c>
-      <c r="R1142" t="inlineStr"/>
+      <c r="R1142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1143">
       <c r="A1143" s="2" t="n">
@@ -64467,7 +64477,9 @@
       <c r="Q1143" t="n">
         <v>0</v>
       </c>
-      <c r="R1143" t="inlineStr"/>
+      <c r="R1143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1144">
       <c r="A1144" s="2" t="n">
@@ -64521,7 +64533,9 @@
       <c r="Q1144" t="n">
         <v>0</v>
       </c>
-      <c r="R1144" t="inlineStr"/>
+      <c r="R1144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1145">
       <c r="A1145" s="2" t="n">
@@ -64575,7 +64589,9 @@
       <c r="Q1145" t="n">
         <v>0</v>
       </c>
-      <c r="R1145" t="inlineStr"/>
+      <c r="R1145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1146">
       <c r="A1146" s="2" t="n">
@@ -64629,7 +64645,9 @@
       <c r="Q1146" t="n">
         <v>0</v>
       </c>
-      <c r="R1146" t="inlineStr"/>
+      <c r="R1146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1147">
       <c r="A1147" s="2" t="n">
@@ -64683,7 +64701,9 @@
       <c r="Q1147" t="n">
         <v>0</v>
       </c>
-      <c r="R1147" t="inlineStr"/>
+      <c r="R1147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1148">
       <c r="A1148" s="2" t="n">
@@ -64737,7 +64757,9 @@
       <c r="Q1148" t="n">
         <v>0</v>
       </c>
-      <c r="R1148" t="inlineStr"/>
+      <c r="R1148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1149">
       <c r="A1149" s="2" t="n">
@@ -64791,7 +64813,9 @@
       <c r="Q1149" t="n">
         <v>0</v>
       </c>
-      <c r="R1149" t="inlineStr"/>
+      <c r="R1149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1150">
       <c r="A1150" s="2" t="n">
@@ -64845,7 +64869,9 @@
       <c r="Q1150" t="n">
         <v>1</v>
       </c>
-      <c r="R1150" t="inlineStr"/>
+      <c r="R1150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1151">
       <c r="A1151" s="2" t="n">
@@ -64899,7 +64925,9 @@
       <c r="Q1151" t="n">
         <v>0</v>
       </c>
-      <c r="R1151" t="inlineStr"/>
+      <c r="R1151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1152">
       <c r="A1152" s="2" t="n">
@@ -64953,7 +64981,9 @@
       <c r="Q1152" t="n">
         <v>0</v>
       </c>
-      <c r="R1152" t="inlineStr"/>
+      <c r="R1152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1153">
       <c r="A1153" s="2" t="n">
@@ -65007,7 +65037,9 @@
       <c r="Q1153" t="n">
         <v>0</v>
       </c>
-      <c r="R1153" t="inlineStr"/>
+      <c r="R1153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1154">
       <c r="A1154" s="2" t="n">
@@ -65061,7 +65093,9 @@
       <c r="Q1154" t="n">
         <v>0</v>
       </c>
-      <c r="R1154" t="inlineStr"/>
+      <c r="R1154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1155">
       <c r="A1155" s="2" t="n">
@@ -65115,7 +65149,9 @@
       <c r="Q1155" t="n">
         <v>0</v>
       </c>
-      <c r="R1155" t="inlineStr"/>
+      <c r="R1155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1156">
       <c r="A1156" s="2" t="n">
@@ -65169,7 +65205,9 @@
       <c r="Q1156" t="n">
         <v>2</v>
       </c>
-      <c r="R1156" t="inlineStr"/>
+      <c r="R1156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1157">
       <c r="A1157" s="2" t="n">
@@ -65223,7 +65261,9 @@
       <c r="Q1157" t="n">
         <v>0</v>
       </c>
-      <c r="R1157" t="inlineStr"/>
+      <c r="R1157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1158">
       <c r="A1158" s="2" t="n">
@@ -65277,7 +65317,9 @@
       <c r="Q1158" t="n">
         <v>0</v>
       </c>
-      <c r="R1158" t="inlineStr"/>
+      <c r="R1158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1159">
       <c r="A1159" s="2" t="n">
@@ -65331,7 +65373,1153 @@
       <c r="Q1159" t="n">
         <v>0</v>
       </c>
-      <c r="R1159" t="inlineStr"/>
+      <c r="R1159" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1160">
+      <c r="A1160" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1160" t="n">
+        <v>122</v>
+      </c>
+      <c r="C1160" t="n">
+        <v>130.8999938964844</v>
+      </c>
+      <c r="D1160" t="n">
+        <v>119.4100036621094</v>
+      </c>
+      <c r="E1160" t="n">
+        <v>128.9100036621094</v>
+      </c>
+      <c r="F1160" t="inlineStr"/>
+      <c r="G1160" t="n">
+        <v>85275595</v>
+      </c>
+      <c r="H1160" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1160" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1160" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1160" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1160" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1160" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1160" t="inlineStr"/>
+    </row>
+    <row r="1161">
+      <c r="A1161" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1161" t="n">
+        <v>128.2400054931641</v>
+      </c>
+      <c r="C1161" t="n">
+        <v>130.8000030517578</v>
+      </c>
+      <c r="D1161" t="n">
+        <v>123.8399963378906</v>
+      </c>
+      <c r="E1161" t="n">
+        <v>127.25</v>
+      </c>
+      <c r="F1161" t="inlineStr"/>
+      <c r="G1161" t="n">
+        <v>47156506</v>
+      </c>
+      <c r="H1161" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1161" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1161" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1161" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1161" t="inlineStr"/>
+    </row>
+    <row r="1162">
+      <c r="A1162" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1162" t="n">
+        <v>127.3099975585938</v>
+      </c>
+      <c r="C1162" t="n">
+        <v>129.3999938964844</v>
+      </c>
+      <c r="D1162" t="n">
+        <v>116.0999984741211</v>
+      </c>
+      <c r="E1162" t="n">
+        <v>116.7799987792969</v>
+      </c>
+      <c r="F1162" t="inlineStr"/>
+      <c r="G1162" t="n">
+        <v>45758807</v>
+      </c>
+      <c r="H1162" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1162" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1162" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1162" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1162" t="inlineStr"/>
+    </row>
+    <row r="1163">
+      <c r="A1163" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1163" t="n">
+        <v>117.1900024414062</v>
+      </c>
+      <c r="C1163" t="n">
+        <v>120.5699996948242</v>
+      </c>
+      <c r="D1163" t="n">
+        <v>115.8499984741211</v>
+      </c>
+      <c r="E1163" t="n">
+        <v>117.870002746582</v>
+      </c>
+      <c r="F1163" t="inlineStr"/>
+      <c r="G1163" t="n">
+        <v>25244296</v>
+      </c>
+      <c r="H1163" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1163" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1163" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1163" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1163" t="inlineStr"/>
+    </row>
+    <row r="1164">
+      <c r="A1164" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1164" t="n">
+        <v>117.8499984741211</v>
+      </c>
+      <c r="C1164" t="n">
+        <v>126.8499984741211</v>
+      </c>
+      <c r="D1164" t="n">
+        <v>117.1399993896484</v>
+      </c>
+      <c r="E1164" t="n">
+        <v>124.0599975585938</v>
+      </c>
+      <c r="F1164" t="inlineStr"/>
+      <c r="G1164" t="n">
+        <v>83194804</v>
+      </c>
+      <c r="H1164" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1164" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1164" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1164" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1164" t="inlineStr"/>
+    </row>
+    <row r="1165">
+      <c r="A1165" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1165" t="n">
+        <v>123.8099975585938</v>
+      </c>
+      <c r="C1165" t="n">
+        <v>123.8099975585938</v>
+      </c>
+      <c r="D1165" t="n">
+        <v>103.0999984741211</v>
+      </c>
+      <c r="E1165" t="n">
+        <v>103.620002746582</v>
+      </c>
+      <c r="F1165" t="inlineStr"/>
+      <c r="G1165" t="n">
+        <v>108678111</v>
+      </c>
+      <c r="H1165" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1165" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1165" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1165" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1165" t="inlineStr"/>
+    </row>
+    <row r="1166">
+      <c r="A1166" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1166" t="n">
+        <v>102.4000015258789</v>
+      </c>
+      <c r="C1166" t="n">
+        <v>111.3899993896484</v>
+      </c>
+      <c r="D1166" t="n">
+        <v>100.8099975585938</v>
+      </c>
+      <c r="E1166" t="n">
+        <v>108.6999969482422</v>
+      </c>
+      <c r="F1166" t="inlineStr"/>
+      <c r="G1166" t="n">
+        <v>75005063</v>
+      </c>
+      <c r="H1166" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1166" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1166" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1166" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1166" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1166" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1166" t="inlineStr"/>
+    </row>
+    <row r="1167">
+      <c r="A1167" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1167" t="n">
+        <v>109.5</v>
+      </c>
+      <c r="C1167" t="n">
+        <v>112.5999984741211</v>
+      </c>
+      <c r="D1167" t="n">
+        <v>106.5</v>
+      </c>
+      <c r="E1167" t="n">
+        <v>107.3000030517578</v>
+      </c>
+      <c r="F1167" t="inlineStr"/>
+      <c r="G1167" t="n">
+        <v>41310939</v>
+      </c>
+      <c r="H1167" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1167" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1167" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1167" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1167" t="inlineStr"/>
+    </row>
+    <row r="1168">
+      <c r="A1168" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1168" t="n">
+        <v>106.75</v>
+      </c>
+      <c r="C1168" t="n">
+        <v>116.7900009155273</v>
+      </c>
+      <c r="D1168" t="n">
+        <v>104.4700012207031</v>
+      </c>
+      <c r="E1168" t="n">
+        <v>112.4400024414062</v>
+      </c>
+      <c r="F1168" t="inlineStr"/>
+      <c r="G1168" t="n">
+        <v>94759048</v>
+      </c>
+      <c r="H1168" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1168" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1168" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1168" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1168" t="inlineStr"/>
+    </row>
+    <row r="1169">
+      <c r="A1169" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1169" t="n">
+        <v>111.2099990844727</v>
+      </c>
+      <c r="C1169" t="n">
+        <v>121.870002746582</v>
+      </c>
+      <c r="D1169" t="n">
+        <v>108.370002746582</v>
+      </c>
+      <c r="E1169" t="n">
+        <v>117.8499984741211</v>
+      </c>
+      <c r="F1169" t="inlineStr"/>
+      <c r="G1169" t="n">
+        <v>75331989</v>
+      </c>
+      <c r="H1169" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1169" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1169" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1169" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1169" t="inlineStr"/>
+    </row>
+    <row r="1170">
+      <c r="A1170" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1170" t="n">
+        <v>117.8499984741211</v>
+      </c>
+      <c r="C1170" t="n">
+        <v>118.0500030517578</v>
+      </c>
+      <c r="D1170" t="n">
+        <v>108.2099990844727</v>
+      </c>
+      <c r="E1170" t="n">
+        <v>109.4400024414062</v>
+      </c>
+      <c r="F1170" t="inlineStr"/>
+      <c r="G1170" t="n">
+        <v>55961798</v>
+      </c>
+      <c r="H1170" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1170" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1170" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1170" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1170" t="inlineStr"/>
+    </row>
+    <row r="1171">
+      <c r="A1171" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1171" t="n">
+        <v>109.7699966430664</v>
+      </c>
+      <c r="C1171" t="n">
+        <v>118</v>
+      </c>
+      <c r="D1171" t="n">
+        <v>106.629997253418</v>
+      </c>
+      <c r="E1171" t="n">
+        <v>115.6800003051758</v>
+      </c>
+      <c r="F1171" t="inlineStr"/>
+      <c r="G1171" t="n">
+        <v>55077177</v>
+      </c>
+      <c r="H1171" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1171" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1171" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1171" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1171" t="inlineStr"/>
+    </row>
+    <row r="1172">
+      <c r="A1172" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1172" t="n">
+        <v>114.5999984741211</v>
+      </c>
+      <c r="C1172" t="n">
+        <v>118</v>
+      </c>
+      <c r="D1172" t="n">
+        <v>110.0199966430664</v>
+      </c>
+      <c r="E1172" t="n">
+        <v>112.0999984741211</v>
+      </c>
+      <c r="F1172" t="inlineStr"/>
+      <c r="G1172" t="n">
+        <v>38628869</v>
+      </c>
+      <c r="H1172" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1172" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1172" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1172" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1172" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1172" t="inlineStr"/>
+    </row>
+    <row r="1173">
+      <c r="A1173" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1173" t="n">
+        <v>112.0999984741211</v>
+      </c>
+      <c r="C1173" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="D1173" t="n">
+        <v>107.5999984741211</v>
+      </c>
+      <c r="E1173" t="n">
+        <v>117.7799987792969</v>
+      </c>
+      <c r="F1173" t="inlineStr"/>
+      <c r="G1173" t="n">
+        <v>46073098</v>
+      </c>
+      <c r="H1173" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1173" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1173" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1173" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1173" t="inlineStr"/>
+    </row>
+    <row r="1174">
+      <c r="A1174" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1174" t="n">
+        <v>117.4100036621094</v>
+      </c>
+      <c r="C1174" t="n">
+        <v>118.7600021362305</v>
+      </c>
+      <c r="D1174" t="n">
+        <v>112.4000015258789</v>
+      </c>
+      <c r="E1174" t="n">
+        <v>113.6999969482422</v>
+      </c>
+      <c r="F1174" t="inlineStr"/>
+      <c r="G1174" t="n">
+        <v>26667017</v>
+      </c>
+      <c r="H1174" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1174" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1174" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1174" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1174" t="inlineStr"/>
+    </row>
+    <row r="1175">
+      <c r="A1175" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1175" t="n">
+        <v>114.3600006103516</v>
+      </c>
+      <c r="C1175" t="n">
+        <v>123</v>
+      </c>
+      <c r="D1175" t="n">
+        <v>112.1699981689453</v>
+      </c>
+      <c r="E1175" t="n">
+        <v>122.5199966430664</v>
+      </c>
+      <c r="F1175" t="inlineStr"/>
+      <c r="G1175" t="n">
+        <v>32972103</v>
+      </c>
+      <c r="H1175" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1175" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1175" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1175" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1175" t="inlineStr"/>
+    </row>
+    <row r="1176">
+      <c r="A1176" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1176" t="n">
+        <v>124</v>
+      </c>
+      <c r="C1176" t="n">
+        <v>128.5899963378906</v>
+      </c>
+      <c r="D1176" t="n">
+        <v>119.6600036621094</v>
+      </c>
+      <c r="E1176" t="n">
+        <v>126.1800003051758</v>
+      </c>
+      <c r="F1176" t="inlineStr"/>
+      <c r="G1176" t="n">
+        <v>106835806</v>
+      </c>
+      <c r="H1176" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1176" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1176" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1176" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1176" t="inlineStr"/>
+    </row>
+    <row r="1177">
+      <c r="A1177" s="2" t="n">
+        <v>45747</v>
+      </c>
+      <c r="B1177" t="n">
+        <v>126.1800003051758</v>
+      </c>
+      <c r="C1177" t="n">
+        <v>132.8899993896484</v>
+      </c>
+      <c r="D1177" t="n">
+        <v>120.6500015258789</v>
+      </c>
+      <c r="E1177" t="n">
+        <v>122.1100006103516</v>
+      </c>
+      <c r="F1177" t="inlineStr"/>
+      <c r="G1177" t="n">
+        <v>79485853</v>
+      </c>
+      <c r="H1177" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1177" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1177" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1177" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1177" t="inlineStr"/>
+    </row>
+    <row r="1178">
+      <c r="A1178" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B1178" t="n">
+        <v>113.8000030517578</v>
+      </c>
+      <c r="C1178" t="n">
+        <v>122.5599975585938</v>
+      </c>
+      <c r="D1178" t="n">
+        <v>112.5199966430664</v>
+      </c>
+      <c r="E1178" t="n">
+        <v>117.8300018310547</v>
+      </c>
+      <c r="F1178" t="inlineStr"/>
+      <c r="G1178" t="n">
+        <v>46048093</v>
+      </c>
+      <c r="H1178" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1178" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1178" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1178" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1178" t="inlineStr"/>
+    </row>
+    <row r="1179">
+      <c r="A1179" s="2" t="n">
+        <v>45761</v>
+      </c>
+      <c r="B1179" t="n">
+        <v>117.8300018310547</v>
+      </c>
+      <c r="C1179" t="n">
+        <v>127.8499984741211</v>
+      </c>
+      <c r="D1179" t="n">
+        <v>117.8300018310547</v>
+      </c>
+      <c r="E1179" t="n">
+        <v>126.5899963378906</v>
+      </c>
+      <c r="F1179" t="inlineStr"/>
+      <c r="G1179" t="n">
+        <v>31537949</v>
+      </c>
+      <c r="H1179" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1179" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1179" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1179" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1179" t="inlineStr"/>
+    </row>
+    <row r="1180">
+      <c r="A1180" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B1180" t="n">
+        <v>126.5899963378906</v>
+      </c>
+      <c r="C1180" t="n">
+        <v>130.8000030517578</v>
+      </c>
+      <c r="D1180" t="n">
+        <v>122.7799987792969</v>
+      </c>
+      <c r="E1180" t="n">
+        <v>124.9400024414062</v>
+      </c>
+      <c r="F1180" t="inlineStr"/>
+      <c r="G1180" t="n">
+        <v>80604000</v>
+      </c>
+      <c r="H1180" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1180" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1180" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1180" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1180" t="inlineStr"/>
+    </row>
+    <row r="1181">
+      <c r="A1181" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B1181" t="n">
+        <v>125.120002746582</v>
+      </c>
+      <c r="C1181" t="n">
+        <v>131.5</v>
+      </c>
+      <c r="D1181" t="n">
+        <v>124.5599975585938</v>
+      </c>
+      <c r="E1181" t="n">
+        <v>125.7799987792969</v>
+      </c>
+      <c r="F1181" t="inlineStr"/>
+      <c r="G1181" t="n">
+        <v>29835151</v>
+      </c>
+      <c r="H1181" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1181" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1181" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1181" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1181" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
